--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/46_Kastamonu_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/46_Kastamonu_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08287C5B-74A0-45D5-90E7-8235A0050532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9CB5F3-6655-41F0-8741-52BADC453D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{E7A44A0D-04A9-4276-A0D9-D5CCC7E332EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{5CB90F00-1C99-4894-9215-CD83BBA43127}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{22230C22-8978-4F0F-AF80-A11CEBD94AAE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D786139E-6D70-4872-AFFB-8E231119FD2A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DE58B918-0A7A-4094-B6C5-B65771F34549}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{370E7C3A-EAD5-418D-B0D0-285ADB493BE8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{95BCF17A-3A94-4B1F-9C37-9B9EE021E6A3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{03A2E7DC-017B-4A33-9CAD-6A1C66D4D3AF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4A3FE465-ED93-4C8B-8C97-53A28EF473BF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BB3CBC86-A7B4-43F3-B78E-3EAC16E6A4A2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{397C3FBB-F646-4BC1-BD8F-4DA7CE874367}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8F922A43-D675-414B-A821-9348687F67A5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6D7F5595-12F8-4095-A89B-99616F9A5E83}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9B1D1F81-CFF7-458E-978E-0637B389E415}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3644AD74-714C-43B9-BACB-C01A2E022770}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9EE3B4E5-9F9D-4451-98E5-DFA6803948CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E400D35-1FF4-4A31-A72C-62689E6EA9F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496B583-5FFB-4F7D-B791-8999B0C6C583}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2589,18 +2589,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51FD154A-73B7-4396-A26F-80F16B2881F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B90D38A-AC49-47A0-94EE-3FD2A5D3850A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE80FB2F-C620-4B3D-B550-56BCDA518D52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A69B2AF0-7A24-4BFF-919F-244B24B93791}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46A9B53D-1D65-4715-81DE-587660B50BE5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F32EEE9A-4728-496B-AC5D-C40E7CC6C935}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9879BC72-7980-4E3E-A243-C84A858DBD58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E4FD2D3-C458-4FE4-82AD-20AE5EE30C94}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1626D3C3-6CCF-42DC-B4D1-7F1E9950584C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C4A22312-3495-483F-AAD3-B86B8D6728CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1B75DF3-D4CC-432C-947A-808B25D82264}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64E3727E-B359-4C8B-98AA-58CB067481DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0929BD8-E5F0-433D-8AC8-F7363B4242B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31811982-F25D-46E1-8D69-65E9DD177961}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93F158F1-6BD4-410F-A4F6-E56964D82C57}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{445EE797-4D65-4ADB-9A43-752578F22CE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EEBD99E-5529-4354-8A0A-0826DEF7EE34}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE2D9BB3-8DD6-447F-AAB9-8674043775B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DDDF9BB-C122-4D04-808F-C6DBF8C2CA92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A374C588-597F-4F7D-9FB4-522A83D8C45D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8747F5AF-5383-4F31-AE73-5082F30B2FF9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{41B62D45-2E59-42CA-83F7-A3847690FAB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8C72B84-F4B9-402B-9F77-94B71247C06F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CCC7440-D7E8-407B-8E3D-5812871F54C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2613,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F70AD7-DC31-4B18-8AEB-0085CA0FA6E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540E144D-9324-4FB9-97DC-7C62EC610C32}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3852,18 +3852,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CA6AE86-E299-4432-A687-A6FABB887824}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F195DF5-184F-470B-A6D8-780E942423EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB85E488-D7BF-408D-9411-CCED0831D492}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BECF2850-0E24-403A-AA0A-FE1B271263D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8900C688-428A-474F-9982-10A559A10F48}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B7E3EEDA-3925-4218-8059-27360997FD68}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEE2A0CD-F22F-4E7C-BDB8-F6F79D52B12C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17179A83-6216-4772-AB79-CF4AF5FDEEF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E6403D9-5538-475E-B72E-959ECC848CC2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED1FDC34-8C7D-4AB8-8AA1-ECDEB97B3EB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F14A050B-23FF-448A-9D66-F8E6B2976E3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCEED18D-0873-4775-B13C-A66AD8DED969}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C76AA2B6-1A0E-4A69-81D5-C2F438F53F7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{129ADA31-9A61-4A63-A44C-32306D36B8BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1DA6656-A4E2-4C5F-B6C7-FF83993FCE2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98EAFCFB-ADA7-4353-A1E4-FBA4A8BDAEB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C16BC99-6209-46CE-A524-163C517DD6B1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A3F53BF-1FC7-4B35-AA82-1F054DA54AC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC15DA36-6B26-4808-BD84-50FDCB857B3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88B08510-BC96-4B51-8873-A220C449FCDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8AFFDC9-C155-43C6-946E-3C2467BA8F91}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FCD2A6A0-E04E-40E5-8066-C41D92A3834A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C6A4991-DE9D-4617-AE5C-BA0065E3890C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FC51424-A107-49DD-A1A3-DD20A3B8A5F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3876,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210DEBCA-DD77-4AB8-A5F3-4D962DF6004A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A86277-BFA0-47D6-A0E9-B669F0BEE031}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5115,18 +5115,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D5C9CB5-1F78-410B-ADC2-03FC1A7C3C77}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F3238EC-E8F1-4A44-99BA-19990C688C5F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA6DA7D1-8599-4D0B-89B7-4300AFA9ADD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{098AECD6-E467-49F2-A651-38330E13AB6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{107F76E5-505C-497B-954F-92A06712EE86}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{068F94A0-C584-4D06-8B88-579D7ABA16E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E032227-5D80-4682-B014-3DCEE660881C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48422897-A1A3-4AD6-A396-DA04460D0952}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9985D5D2-1869-4F4E-B33E-CDCC7E58D217}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BAACC74E-1109-486D-B4E6-8C684250C929}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01084C62-721E-4D6B-A358-65904A6A5AC6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E34829AC-204C-4094-A2B6-7B3216F65A0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B3EB920-FBB1-4B8F-818A-B7815B1FCCCC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90C7B7B7-CF3A-4A46-B2E2-F4085B147F43}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EA3799A-9A11-4E94-AB35-CA24681D2131}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6C86A12-256D-4D3F-A8B2-31B50229CA8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9ADEE57-23FB-4DD0-ACA4-3F4678C4B437}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{24A7EC4A-D59F-4F99-9F4D-3AE51BF53536}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7334630E-299D-4BD2-BDF9-854D408B55EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4FF39C2-61FC-4520-B98B-6320FFB66FA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AC613B5-AECE-4821-861D-34A774E8E56E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AF203EA4-035F-48C4-8550-B714971533CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3795339-6B83-48F0-8B96-62C0ABFB7A1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9633E540-A34E-4EC7-B1A5-5F6C2ACB9ED5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5139,7 +5139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AA700A-C884-4659-BB52-B1937170C6F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3E1AE4-90A9-4517-9157-1DC83D8E9C84}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6367,18 +6367,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8A26A5A-AB24-4368-BE53-CC5BC6CC757C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0875DFA-0F29-48BF-818A-22E634744A4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0D78BA8-ED31-4BDA-B43C-B092AF41B34A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{717391F2-204E-4253-8D8F-35F1890EDE3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59076A28-A3CE-46F2-B9C4-6DA77B86DA78}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{74EB81C3-819D-403D-A094-D5F1E5D925EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85F73B92-22B3-42FD-81AB-F7633B3680FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD475D4F-3281-4D06-9344-54DFB5C822CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A56B8A13-A67C-41CF-83C5-0D5273586C65}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABC21A78-ADDF-4285-B0EB-C313730EC669}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30DB5D80-8802-4F6D-BF51-8683A3240205}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFAE5BAB-25BA-45F4-A541-E80C981F07D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E00D5AD-D655-41F1-A2B0-4D3AC745DFD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8C309C2-3F1F-4594-BD45-77C60FCABC66}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CA3B4F1-7454-4BC6-BB19-69B4ACB2E5EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{247213AD-F467-41E0-953A-B3902F120FCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE95D5AF-54C2-4039-A9B7-AA526D89CD09}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E17B5CF-3454-4E6A-8C1B-38695D5DBCD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ABDCC8E-55BA-437C-9372-3A88D0C6AF54}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95D6ECD5-B186-433C-BD7B-4F4450AE7D68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F8315A8-7244-4C1A-87EE-879791308D7C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2135AD5-D61B-4570-8EBF-38CD7DA68BE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{720EC5D3-53B5-44D5-8233-ABEF517D7EF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D75279F-31D0-4CCA-8873-AAB3DE8DC264}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6391,7 +6391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BC2D42-E2FA-4267-AD38-44DC660811BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B466F6-CF6F-404B-BF69-3617D5AE52AA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7650,18 +7650,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{039ECD54-D08A-426B-850F-48A0DB592358}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7EAED14-EEA9-4A8B-8534-E43436D48906}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38B8842B-FD24-48CD-B81E-DC3702190C55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16942FD3-EFCC-4843-86A8-B828627D6310}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1375979-47CB-4C9B-A59B-B596EE50AE86}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3956D9C-ACF6-4106-AC7A-BE323F776EF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{746B3510-5A75-4B23-98B0-8CFC7FDB6F22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{000066D3-19AA-4A51-A49D-A1A8EEB10553}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33B3A3D0-DFC9-408B-B897-7B120874FFA3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5C393826-6AE7-4A2D-804F-A09161E114E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06EAD36F-C6D5-42F6-B4B7-A579BDE14886}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A7E8843-B84B-4D66-A804-3EB449464C47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E5FD2D4-A633-4672-9BA8-2809F545426B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{810394CE-F4FD-43B9-8EA9-89A6EA21DFAD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9AFDC0B-FB20-4B79-A7AE-EC7B9CD33FAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A6EABB4-2F9B-4EC7-8915-3FDE276C51E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C608C7E-4527-454F-9E05-B8069F22FAA8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC577534-1DC7-49C9-AB0E-583AC19854C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A670F484-67CF-48B7-A599-4390276A7EE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77E4EF1D-C930-4AD2-B771-A4345F8F00A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E90890F-AB36-42ED-AE80-2BC4F8498EFB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8200B658-BDA1-46B5-ABEC-065E4BE1CB52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C07F6524-7586-4571-B3C5-06DDC4B6178D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4692B2CA-6898-41AC-87E5-F064F9FEF6B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7674,7 +7674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8BA2C8-9751-4793-823A-8D39605CBE94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5A88F2-D088-4D79-8CC9-E08A4B4C3AB1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8933,18 +8933,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F40D20FC-C089-41E5-88E6-C92E28135EB5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9F569D3-414B-4132-8291-C12A843CE5DA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0969861-61D0-48B3-872C-8286047E7162}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81452A59-6A41-46F4-A192-A4FFC4AC5E4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0E9E0A7-131C-49C8-82FA-615AF59939C8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{008A68F1-7D8A-43C7-B7BA-1C7E4BD56C8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A798931-64E2-4824-A138-18AB51BA246F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA749ADA-A549-4820-9FC3-5D9E576DC9D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1386B7BE-0B81-429E-8B6A-CB3B4F85313A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7AE688EE-EE48-4563-B1BD-A34B3A1EDF8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B57807E4-CC2D-44C6-994A-2B7E226BF9C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC8B2007-3645-4750-B09F-C9BC31CB92D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF2F7201-1264-41A2-997A-551D81D4E14A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2F0A86A-986C-407E-8407-D1F0F8B4C69B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55B3371D-6BAF-4E2F-AE87-79F3E30FCCB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC2D1F19-0665-48A0-9266-6250C02D8FDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE86BFD2-9F54-403A-838D-960F144F1B85}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{28882457-03A4-4A60-8E7C-EC32D89F7C3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A77EB82-B2D6-4B7B-BE80-BE779BC25493}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{590E5B72-4D7F-400F-8B47-7E5AAD403A9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59A85855-367E-4C0B-9907-2C5C4C3A8588}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0BEC75C3-0A9E-4A74-953F-C468D5C2278F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4D9EF29-00C1-4FB0-BDE6-DDF3EC32A64F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB3F3F7A-948F-4C70-BDE2-7480FFBBEDF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8957,7 +8957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA428FCA-609C-4F69-8ABF-CEDDA848D422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB7F3CB-451B-440A-ADF2-C8A3FDC67A92}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10216,18 +10216,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC27B077-51C1-4202-9B45-451614911853}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36C030C1-532A-4497-9598-55538C683B82}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1C08619-5DC7-4A8C-8EEE-BED5A8865A89}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81DE1E7C-D0A1-45E9-9212-8746D67DA035}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EE94D25-7B3A-4F0D-842D-8AB9426CCBF9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{96051C29-B9FD-42FA-BBE2-F753C4E2102A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62713851-F0AD-4F42-A66B-FC692F274B82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6388067E-650A-4790-91BD-60B661C2506C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10F0869C-8BC1-40F7-92D2-7A3845978F74}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52DB6BA7-08FE-4878-8475-515AEA67E5A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{044A48B2-DBC7-4D1A-A39B-FA7279F117DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C900BD3C-BAC6-4862-B39E-82EFDBAE411C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{151D871F-77D2-4C9E-806D-2794A56401F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C55A3CE-3B8E-4926-8BCA-04B209E09B02}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F63E5848-2568-4A6F-A862-D6C5C2CD9661}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5463DDF-906C-4F11-AC99-6E7A620E3CC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBD3FFF2-8C99-4FDA-A736-02E6A9A56D91}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67EB46D8-85F5-44D7-B668-100525BBF3F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C094E440-7F08-4D90-BF87-DCB57919796F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88B75AB9-FE55-42F4-9963-422019DA940D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9D2966B-6DDD-42C7-92D8-D039A5321764}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B763E5A8-2D97-47DA-AAE5-76BAD850BEC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA5DEE16-DA5C-4C49-9AD0-8AC6FF46A72A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08864DB8-83FE-4F6C-9D1B-284D921A33BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10240,7 +10240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36DEB92-CABE-4B70-B92A-108E9BBA81E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735FB3A-F3B0-4133-BCD1-3165F1640DD9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11499,18 +11499,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1C6F79F-BB5B-4DEF-84D4-237143D2A2AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C67099AE-32B3-4068-B178-D3D23D202154}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F9587F9-D191-469A-AD64-DD96C9D2AD8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8F182DD-CF82-4180-9FBC-65BE454FE0F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{438D644B-289E-4A8A-9B2E-2B4C3448B469}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9DB1560-8DCF-4D18-9473-4B8A5C03F749}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40017BC3-363C-47B4-8681-BC5FA245D1A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D8789E5-A38A-4629-A83A-7F980BB23806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD490E11-B644-4036-8598-F34EFE3E710F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4DB1FA49-48E7-417F-90E5-E6B9089A5A28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2D0F5BC-7485-40C6-BCF4-177C98F945CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4C25362-939D-44FB-A641-4D9C7BAE8DF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED95419C-E009-4B80-8BA7-E7499AC00CD5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34ECDA0B-AA56-4612-89C4-714FBA5724B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B16B9D1C-A86F-485C-BD35-B0D0A1D990C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48EBA9A2-8396-448C-9BCB-DB87C83BA6E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1951F95E-1C09-48B4-84F5-B225ADCFE9EB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{493982ED-5DD5-49CE-A1C5-E40A09210A9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACA6F540-D1A3-4C9D-991E-908687588CCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{266AB193-84B1-44E6-B2BF-A65547C62617}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B7063FD-DE44-45EE-B7F6-D9B3E760885C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3A5C646B-26C5-4E72-99F2-67E0CAE15077}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA9FCCC5-C660-4A34-90CA-7FD29D06EDAB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75C2B8DB-FA3C-475D-B7C1-11C46BB25F71}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11523,7 +11523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6352B2BC-E426-46BB-83F3-346FA8B4B44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF942C-89AD-4FDF-BEEC-8068A1CDD912}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12774,18 +12774,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B963E8BB-64F9-407F-BCA3-126E76674305}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{597230F5-B14C-4B29-AE9C-5DB6E9DB7279}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA2F22C1-793A-4A5A-804F-BC14434FD265}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6E19C37-DA80-4806-A941-4A5EC2CB3DC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBD4B27B-FBB4-43C6-A9BC-4B3179B81C50}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E409B131-9041-4955-9435-30C6654E0A20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F93AB1D-3244-48D7-BB34-302D282928EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{790E00FE-6EEB-4BA6-818E-6D470FDE8982}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0929850-BF27-47BF-8953-B6007C0A96CE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{08C675C0-9755-4018-A92B-9D7C7C40A122}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1200A83F-CADC-48C1-840F-D57DEFEAABAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20C49473-7BEF-41E6-8DBB-80C2A06CB855}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06A6D709-B3CB-4279-97A0-EB5B93F1299A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CE1493E-B5D5-44D7-A63B-466DAADECEAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EA7BB47-7E3E-4F6D-99F1-18CAB8E4B23B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFAA2990-4D2C-4874-998C-6C314928FC1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F699DF35-45A5-4C92-976D-E4D6E0235793}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5B892FAC-30CB-4EEB-BC9F-7C0910A0B7C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6321F016-4372-43DF-BAE2-9C36AC26EC56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D84EE88-B3B9-4B60-9448-D6B2D8220FBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33150BAB-04D9-49E0-8926-73023963F4B1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FEB01417-7882-41A4-A97F-CFB8CA37E9F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F25C9735-033F-4879-A843-DE452EB8FB53}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCA6F67D-2B14-4121-9E00-432724396B61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12798,7 +12798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E9665-9F5A-4321-B3B9-7D47DD69DA49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C34E9AF-7D98-46CA-B578-299775DCB54C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14043,18 +14043,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B0D228B-1A95-4CE0-BAA1-BD33A4BF73B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3C04D62-3F4E-466B-896B-73A9A85170C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8B4351F-37EB-4A86-AD08-343F699DCF89}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{418687C0-6ECA-4EBE-ADCE-D715962B424B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{851F2A3D-971B-4607-B8E2-E8D7BEA408E0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5274596-7BB6-4811-A125-A3F468A7C97B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE17BBF8-698B-4044-B0A6-8CBB1C4BCF27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F79DBDA4-B337-435D-84DD-2620111DA9AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFA416EB-3F2F-4882-87F3-59D1EC6C6D59}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{39B7968F-C669-443B-B3FF-28B3602400B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20FADD1D-4C03-4DFB-8175-22F770B21549}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBDFFE52-012C-4437-A529-F64159539EC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4AF007E-0F9A-46D1-A1A4-69E97FE4B8B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46AEF456-9804-4794-ACB1-2BFE94874214}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8631024C-B6C9-4A7D-94B4-4678BCA580E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B038965-F491-4FFD-808F-AEFC786ABDA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AE8B777-EF8D-43E8-AFDB-6CE50BBFF27E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BAC95E93-105E-4A11-B717-9E93B6994524}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D70014EE-C3AB-4CD3-977B-1D9313BA2D2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6CD79D3-6C3C-47C5-8FEB-E5215BD8B354}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA16A41B-6131-40AB-9FF6-F0A96B656394}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2CA1D067-1753-48AB-9E37-582D61FCC338}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F29137A6-F120-477A-BCBF-AD172D710993}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16F8C320-ACED-40DD-8D93-8B464EB1FAB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14067,7 +14067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39FF1EE-9B87-4FFB-867D-5958DE92123E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECD12-CBEF-45EE-94DD-1497F0A5A7C1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15312,18 +15312,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68AC3648-4321-428E-A07F-800A267BCD0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E03A0C9-E3AE-493F-946E-D07431FD8F1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BACB39D-520A-4DE7-9119-B3B64A1264ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A82C233D-D3B8-42A3-A993-A100F4647C75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3F7279D-5807-45F2-BF25-14E4D85ED091}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98E3F79C-ECB1-44D6-9CF2-23B6AE919CF1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{945D7BAD-522C-4860-9BDF-3DA68F5BDB16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F888B7F4-956B-4659-B4C4-9B5043388AD0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DB1F77A-1F6D-455A-BB00-AACE7367B1D6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{588F844E-089A-4390-8078-6E4DD110FFB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C4E7120-C3CB-4EB1-A77C-DB650F57F99D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{774EAC76-A98C-4B5D-AC4F-9BD095F35866}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFBDCA00-569F-4D07-8198-A2D60F4C3A80}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3EC77A7-9D2F-4412-9B74-1D2B1FE6A131}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94B3EACE-C2B1-4035-86EB-A2CFC1018946}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25B41644-7E5E-4011-BCAC-1216066109CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0A4B272-78B3-4A71-9F50-357F99B38ABF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB631A3C-26BA-4137-BFA2-80F41E05C982}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E7F12DB-FFBA-485C-9B06-6FCE4D9ADB28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED515CE1-7A65-403B-B769-278847B6E44E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C80BEF17-8368-463A-927C-7553F2D62758}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E26B4367-57F3-451F-AB0E-9F0BFF470CEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37D52516-FD2B-4CE3-9BC0-C4D83463902E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0ABA408E-DE92-402C-BBF0-748E8CDCA981}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15336,7 +15336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F27144-E678-4786-9D95-F5ACD705108A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2499E69C-2D24-4F18-A9F4-6B671D98FB7B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16577,18 +16577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40014A7D-62E7-40E9-A479-81B97C782358}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{482D365F-8E37-418E-BBA8-EE372E5F8D00}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC9354CF-EC18-4D08-8B76-55E132B3A8A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5729BF69-8F65-48D1-B5C4-EFF9C9547273}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E325052-11C0-4D27-B20E-ADEE9C0C8563}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F1A3D850-F784-44D0-AFD4-03EE244BCCCE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50438A19-BD46-47F0-9C57-121312ED3284}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B5FFBB0-413F-45ED-8E26-00E4D59F324D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C113C4A-ECBB-4F61-BA5F-A6C6998214DB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A4B311AE-454E-4EA3-8AA6-8207C030302D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0BEA4D3-0FE7-4B6B-AC46-414DB825529B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E7C8EB6-5108-4737-A615-34992E7632E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4660FADC-5355-4231-8583-F28D6874EFEC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A692E3A-9B9D-4CAC-97E3-E1098CF14586}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F17B1D30-A515-4B45-878C-6FB960A0F19F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58FEF34D-C1D3-4AFE-BCCB-6140522911E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F80625DD-FE72-4526-8D8F-30E838C6F1E5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5DBD4BF5-4902-4C35-89A3-4BB174E157E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8FAF8AC-09FD-4035-BB50-55C62703EB7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A17C584C-4FDA-4F5F-B87C-E676E6D01BEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3000161A-B0D4-470F-BAA9-085979FCF428}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D0814744-19BB-476B-91DC-80633CA9BFDF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1E2CCF8-AAF4-4993-8732-C41FD77EF2FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCD8EBE2-4CD2-4136-8DE6-00399815706B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
